--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37A786-0C06-0A46-89E9-2215F524A005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81741AC6-AA7E-2543-A319-79A59A3B9F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="2200" windowWidth="24320" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="2200" windowWidth="24320" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -380,6 +380,43 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -842,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -974,16 +1011,46 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,30 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,10 +1540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1673,23 +1716,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1726,29 +1769,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1762,10 +1805,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="31">
@@ -1786,7 +1829,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="31">
-        <f t="shared" ref="A29:A46" si="0">A28+1</f>
+        <f t="shared" ref="A29:A49" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1900,10 +1943,10 @@
       <c r="D35" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="48" customFormat="1" ht="15">
@@ -1920,10 +1963,10 @@
       <c r="D36" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="48" customFormat="1" ht="15">
@@ -1938,10 +1981,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="47"/>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="61"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="48" customFormat="1" ht="45" customHeight="1">
@@ -1958,10 +2001,10 @@
       <c r="D38" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="48" customFormat="1" ht="45">
@@ -1978,10 +2021,10 @@
       <c r="D39" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="61"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="48" customFormat="1" ht="45">
@@ -1989,42 +2032,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="69">
+      <c r="A41" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="57" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="64">
+      <c r="A42" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2037,13 +2080,13 @@
       <c r="D42" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="64">
+      <c r="A43" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2056,13 +2099,13 @@
       <c r="D43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="64">
+      <c r="A44" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2075,13 +2118,13 @@
       <c r="D44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A45" s="64">
+      <c r="A45" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2094,47 +2137,87 @@
       <c r="D45" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="61"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="48" customFormat="1">
-      <c r="A46" s="64">
+      <c r="A46" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="53"/>
+      <c r="F46" s="61"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="24"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="37"/>
+    <row r="47" spans="1:7" s="48" customFormat="1" ht="15">
+      <c r="A47" s="59">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="E47" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="48" customFormat="1" ht="15">
+      <c r="A48" s="59">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="55"/>
+      <c r="E48" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" s="48" customFormat="1">
+      <c r="A49" s="59"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="24"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
+  <mergeCells count="25">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2146,16 +2229,24 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D63" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81741AC6-AA7E-2543-A319-79A59A3B9F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A41C1-0312-C048-A266-7CF19DB884FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14080" yWindow="2200" windowWidth="24320" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -409,6 +409,23 @@
   </si>
   <si>
     <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>permissionKind</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>APIの権限認証で使用。[write]の場合のみ利用可能、または、[read/write]で利用可能</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">テイギショ </t>
     </rPh>
@@ -879,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1038,6 +1055,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1058,27 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,7 +1491,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1515,7 +1535,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1540,10 +1560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1716,23 +1736,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1769,29 +1789,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="67" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1805,10 +1825,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="31">
@@ -1943,10 +1963,10 @@
       <c r="D35" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="71"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="48" customFormat="1" ht="15">
@@ -1963,10 +1983,10 @@
       <c r="D36" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="69"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="48" customFormat="1" ht="15">
@@ -1981,10 +2001,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="47"/>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="69"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="48" customFormat="1" ht="45" customHeight="1">
@@ -2001,10 +2021,10 @@
       <c r="D38" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="74"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="48" customFormat="1" ht="45">
@@ -2021,10 +2041,10 @@
       <c r="D39" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="69"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="48" customFormat="1" ht="45">
@@ -2041,10 +2061,10 @@
       <c r="D40" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="73"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2080,10 +2100,10 @@
       <c r="D42" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="51">
@@ -2099,10 +2119,10 @@
       <c r="D43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="69"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="51">
@@ -2118,10 +2138,10 @@
       <c r="D44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" spans="1:7" s="48" customFormat="1" ht="15">
       <c r="A45" s="51">
@@ -2137,10 +2157,10 @@
       <c r="D45" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="69"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="48" customFormat="1">
@@ -2157,10 +2177,10 @@
       <c r="D46" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
+      <c r="F46" s="69"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="48" customFormat="1" ht="15">
@@ -2175,10 +2195,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="55"/>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="69"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="48" customFormat="1" ht="15">
@@ -2193,31 +2213,64 @@
         <v>34</v>
       </c>
       <c r="D48" s="55"/>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="69"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" s="48" customFormat="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="50"/>
+    <row r="49" spans="1:7" s="48" customFormat="1" ht="15">
+      <c r="A49" s="59">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>34</v>
+      </c>
       <c r="D49" s="55"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
+      <c r="E49" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="69"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="24"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="37"/>
+    <row r="50" spans="1:7" s="48" customFormat="1">
+      <c r="A50" s="59"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="24"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2229,24 +2282,10 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A41C1-0312-C048-A266-7CF19DB884FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE8C64-97C6-AD44-97E9-47B45ED486E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14080" yWindow="2200" windowWidth="24320" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="980" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -434,6 +434,29 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>impleSpoiled</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Kotlin 独自。メソッド毎の使用不可設定を実装する場合にtrueにします。</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">シヨウフカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">バアイニ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -896,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1028,9 +1051,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1043,9 +1063,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1075,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1078,27 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,7 +1511,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1535,7 +1555,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1560,10 +1580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1736,23 +1756,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1789,29 +1809,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1825,10 +1845,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="31">
@@ -1849,7 +1869,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="31">
-        <f t="shared" ref="A29:A49" si="0">A28+1</f>
+        <f t="shared" ref="A29:A50" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1963,10 +1983,10 @@
       <c r="D35" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="48" customFormat="1" ht="15">
@@ -1983,10 +2003,10 @@
       <c r="D36" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="48" customFormat="1" ht="15">
@@ -2001,10 +2021,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="47"/>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="69"/>
+      <c r="F37" s="61"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="48" customFormat="1" ht="45" customHeight="1">
@@ -2021,10 +2041,10 @@
       <c r="D38" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="74"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="48" customFormat="1" ht="45">
@@ -2041,10 +2061,10 @@
       <c r="D39" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="69"/>
+      <c r="F39" s="61"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="48" customFormat="1" ht="45">
@@ -2052,42 +2072,42 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="73"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="56">
+      <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="55" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="51">
+      <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2100,13 +2120,13 @@
       <c r="D42" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="69"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="51">
+      <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2119,13 +2139,13 @@
       <c r="D43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="68" t="s">
+      <c r="E43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="69"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="51">
+      <c r="A44" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2138,13 +2158,13 @@
       <c r="D44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A45" s="51">
+      <c r="A45" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2157,108 +2177,139 @@
       <c r="D45" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="69"/>
+      <c r="F45" s="61"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="48" customFormat="1">
-      <c r="A46" s="51">
+      <c r="A46" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="68" t="s">
+      <c r="E46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="69"/>
+      <c r="F46" s="61"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A47" s="59">
+      <c r="A47" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="68" t="s">
+      <c r="D47" s="54"/>
+      <c r="E47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="69"/>
+      <c r="F47" s="61"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A48" s="59">
+      <c r="A48" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="68" t="s">
+      <c r="D48" s="54"/>
+      <c r="E48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="69"/>
+      <c r="F48" s="61"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A49" s="59">
+      <c r="A49" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="55"/>
-      <c r="E49" s="68" t="s">
+      <c r="D49" s="54"/>
+      <c r="E49" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="69"/>
+      <c r="F49" s="61"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" s="48" customFormat="1">
-      <c r="A50" s="59"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
+    <row r="50" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="61"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="24"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="37"/>
+    <row r="51" spans="1:7" s="48" customFormat="1">
+      <c r="A51" s="57"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="61"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="24"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
@@ -2271,21 +2322,11 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE8C64-97C6-AD44-97E9-47B45ED486E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{580A3A9E-B39B-0345-895A-D9FA2D3C1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="980" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="4320" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -457,6 +458,46 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>telegramSuffix</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>電文IDの後ろに付与されます。エラー電文で使用される想定です。</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">シヨウフカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>応答ステータス。エラー電文で使用される想定です。</t>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">ゴト </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">シヨウフカ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">セッテイ ジッソウ バアイニ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -919,20 +960,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -954,12 +995,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1023,18 +1062,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1045,48 +1081,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1111,13 +1135,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1580,10 +1604,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:F50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1654,8 +1678,8 @@
         <v>64</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1714,11 +1738,11 @@
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1739,11 +1763,11 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -1756,47 +1780,47 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -1809,493 +1833,529 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="29"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>1</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="67" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="31">
-        <f t="shared" ref="A29:A50" si="0">A28+1</f>
+      <c r="A29" s="29">
+        <f t="shared" ref="A29:A52" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="35"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31">
+      <c r="A33" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" s="48" customFormat="1" ht="45">
-      <c r="A35" s="31">
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A35" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="56"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A36" s="31">
+    <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A36" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A37" s="31">
+    <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A37" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="A38" s="31">
+    <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
+      <c r="A38" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="59"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" s="48" customFormat="1" ht="45">
-      <c r="A39" s="31">
+    <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A39" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" s="48" customFormat="1" ht="45">
-      <c r="A40" s="31">
+    <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A40" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="58"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="31">
+      <c r="A41" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="61"/>
-    </row>
-    <row r="45" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A45" s="31">
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A45" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="54"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" s="48" customFormat="1">
-      <c r="A46" s="31">
+    <row r="46" spans="1:7" s="45" customFormat="1">
+      <c r="A46" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
+      <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A47" s="31">
+    <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A47" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="60" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A48" s="31">
+    <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A48" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="60" t="s">
+      <c r="D48" s="49"/>
+      <c r="E48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" s="48" customFormat="1" ht="15">
-      <c r="A49" s="31">
+    <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A49" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="49"/>
+      <c r="E49" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" s="48" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="31">
+    <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="59" t="b">
+      <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" s="48" customFormat="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="61"/>
+    <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="24"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="37"/>
+    <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" s="45" customFormat="1">
+      <c r="A53" s="52"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="22"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2307,26 +2367,28 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D68" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D70" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2394,48 +2456,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580A3A9E-B39B-0345-895A-D9FA2D3C1DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A44436-E698-5746-8B0A-ECC243A78309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="4320" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
     <definedName name="必須">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -498,6 +497,56 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t xml:space="preserve">セッテイ ジッソウ バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>additionalPath</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メソッド毎に固定のパスを追加する場合に使用。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ゴトオ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">コテイノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>paramPreferred</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>"PATH"</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>POST/PUTメソッドでURIパスとbodyのJSONプロパティの名前が被った際の動作を規定する。</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ナマエガ </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">カブッタ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ドウサヲ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キテイスル </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1102,6 +1151,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1122,27 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,7 +1584,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1579,7 +1628,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1604,10 +1653,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1780,23 +1829,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1833,29 +1882,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -1869,10 +1918,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -1893,7 +1942,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A52" si="0">A28+1</f>
+        <f t="shared" ref="A29:A55" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2007,10 +2056,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2027,10 +2076,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2045,10 +2094,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="61"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2065,10 +2114,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2085,10 +2134,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="61"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2105,10 +2154,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2144,10 +2193,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2163,10 +2212,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2182,10 +2231,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2201,10 +2250,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="61"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2221,10 +2270,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="61"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2239,10 +2288,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="61"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2257,10 +2306,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="61"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2275,10 +2324,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="61"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2295,10 +2344,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="61"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2313,10 +2362,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="54"/>
+      <c r="F51" s="61"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2331,31 +2380,99 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="54"/>
+      <c r="F52" s="61"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" s="45" customFormat="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54"/>
+    <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="61"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="22"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="35"/>
+    <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="61"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="29"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" s="45" customFormat="1">
+      <c r="A56" s="52"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="22"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2367,28 +2484,10 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D73" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A44436-E698-5746-8B0A-ECC243A78309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FF3FF-9D76-EC43-ADF8-41C38F842C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="11300" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -547,6 +547,37 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t xml:space="preserve">キテイスル </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hasQueryParams</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パラメータをQueryStringで取得する場合はtrueとします。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シュトク </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>calculatedPackage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最終的に使用されるパッケージ名を保存します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">サイシュウテキニ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シヨウサレル </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ホゾｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1151,6 +1182,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1171,27 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,7 +1615,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1628,7 +1659,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1653,10 +1684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E57" sqref="E57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1829,23 +1860,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1882,29 +1913,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -1918,10 +1949,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -1942,7 +1973,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A55" si="0">A28+1</f>
+        <f t="shared" ref="A29:A56" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2056,10 +2087,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="56"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2076,10 +2107,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2094,10 +2125,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2114,10 +2145,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="59"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2134,10 +2165,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2154,10 +2185,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="58"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2193,10 +2224,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2212,10 +2243,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2231,10 +2262,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2250,10 +2281,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="54"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2270,10 +2301,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
+      <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2288,10 +2319,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2306,10 +2337,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2324,10 +2355,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2344,10 +2375,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2362,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2380,10 +2411,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="54"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2398,10 +2429,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="61"/>
+      <c r="F53" s="54"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2418,61 +2449,78 @@
       <c r="D54" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="61"/>
+      <c r="F54" s="54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="61"/>
+      <c r="A55" s="29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="54"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" s="45" customFormat="1">
-      <c r="A56" s="52"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="44"/>
+    <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A56" s="29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>34</v>
+      </c>
       <c r="D56" s="49"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="61"/>
+      <c r="E56" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="54"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="22"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="35"/>
+    <row r="57" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="29"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" s="45" customFormat="1">
+      <c r="A58" s="52"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="54"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="22"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
+  <mergeCells count="34">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2484,10 +2532,33 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D73" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D75" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FF3FF-9D76-EC43-ADF8-41C38F842C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C6E58-C9AA-5F49-8047-4690941AECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="11300" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -578,6 +578,33 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ホゾｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bodyTelegram</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blanco.restgeneratorkt.valueobject.BlancoRestGeneratorKtTelegramStructure</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PathとQueryで指定されるプロパティを除いた、bodyにJSONとして乗せられるプロパティだけを集約した電文です。</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">ノゾイタ </t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">ノセラレル </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">シュウヤク </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">デンブｎ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1684,10 +1711,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1973,7 +2000,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A56" si="0">A28+1</f>
+        <f t="shared" ref="A29:A57" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2493,34 +2520,52 @@
       <c r="F56" s="54"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="53"/>
+    <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A57" s="29">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="53" t="s">
+        <v>103</v>
+      </c>
       <c r="F57" s="54"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" s="45" customFormat="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="48"/>
+    <row r="58" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="29"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="44"/>
-      <c r="D58" s="49"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="53"/>
       <c r="F58" s="54"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="22"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="35"/>
+    <row r="59" spans="1:7" s="45" customFormat="1">
+      <c r="A59" s="52"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="54"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="22"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2547,18 +2592,19 @@
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D75" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D76" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C6E58-C9AA-5F49-8047-4690941AECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92947CD5-9253-F944-B169-B63CAD61FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="11300" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -605,6 +605,30 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pathQueryFormat</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Path部分に指定されるクエリの書式です。クエリは field の No. で #1 指定します。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ブブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ショシキデス。 </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1209,6 +1233,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1229,27 +1274,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,7 +1666,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1686,7 +1710,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1711,10 +1735,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1887,23 +1911,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1940,29 +1964,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -1976,10 +2000,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2000,7 +2024,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A57" si="0">A28+1</f>
+        <f t="shared" ref="A29:A58" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2114,10 +2138,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2134,10 +2158,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2152,10 +2176,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="61"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2172,10 +2196,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2192,10 +2216,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="61"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2212,10 +2236,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2251,10 +2275,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2270,10 +2294,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2289,10 +2313,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2308,10 +2332,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="61"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2328,10 +2352,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="61"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2346,10 +2370,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="61"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2364,10 +2388,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="61"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2382,10 +2406,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="61"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2402,10 +2426,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="61"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2420,10 +2444,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="54"/>
+      <c r="F51" s="61"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2438,10 +2462,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="54"/>
+      <c r="F52" s="61"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2456,10 +2480,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="61"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2476,10 +2500,10 @@
       <c r="D54" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="54"/>
+      <c r="F54" s="61"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2496,10 +2520,10 @@
       <c r="D55" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="61"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2514,10 +2538,10 @@
         <v>34</v>
       </c>
       <c r="D56" s="49"/>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="54"/>
+      <c r="F56" s="61"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2532,40 +2556,85 @@
         <v>102</v>
       </c>
       <c r="D57" s="49"/>
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="61"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="54"/>
+    <row r="58" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A58" s="29">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="61"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" s="45" customFormat="1">
-      <c r="A59" s="52"/>
-      <c r="B59" s="48"/>
+    <row r="59" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="29"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="44"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="54"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="61"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="22"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="35"/>
+    <row r="60" spans="1:7" s="45" customFormat="1">
+      <c r="A60" s="52"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="22"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2577,34 +2646,10 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D76" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92947CD5-9253-F944-B169-B63CAD61FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6E6FF-F591-3D4C-BCE6-3E57C4E79AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -629,6 +629,20 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arrayNoBracket</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クエリパラメータが配列でもパラメータに[]を付与しません。</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">フヨ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1233,6 +1247,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1253,27 +1288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,7 +1680,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1710,7 +1724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1735,10 +1749,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:F59"/>
+      <selection activeCell="E60" sqref="E60:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1911,23 +1925,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1964,29 +1978,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -2000,10 +2014,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2024,7 +2038,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A58" si="0">A28+1</f>
+        <f t="shared" ref="A29:A59" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2138,10 +2152,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="56"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2158,10 +2172,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2176,10 +2190,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2196,10 +2210,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="59"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2216,10 +2230,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2236,10 +2250,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="58"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2275,10 +2289,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2294,10 +2308,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2313,10 +2327,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2332,10 +2346,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="54"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2352,10 +2366,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
+      <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2370,10 +2384,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2388,10 +2402,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2406,10 +2420,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2426,10 +2440,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2444,10 +2458,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2462,10 +2476,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="54"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2480,10 +2494,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="61"/>
+      <c r="F53" s="54"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2500,10 +2514,10 @@
       <c r="D54" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="61"/>
+      <c r="F54" s="54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2520,10 +2534,10 @@
       <c r="D55" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="61"/>
+      <c r="F55" s="54"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2538,10 +2552,10 @@
         <v>34</v>
       </c>
       <c r="D56" s="49"/>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="61"/>
+      <c r="F56" s="54"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2556,10 +2570,10 @@
         <v>102</v>
       </c>
       <c r="D57" s="49"/>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="61"/>
+      <c r="F57" s="54"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2576,65 +2590,60 @@
       <c r="D58" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="61"/>
+      <c r="F58" s="54"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="61"/>
+    <row r="59" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A59" s="29">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="54"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" s="45" customFormat="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="48"/>
+    <row r="60" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="29"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="44"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="54"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="22"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="35"/>
+    <row r="61" spans="1:7" s="45" customFormat="1">
+      <c r="A61" s="52"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="22"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
+  <mergeCells count="37">
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2646,10 +2655,36 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D77" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D78" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6E6FF-F591-3D4C-BCE6-3E57C4E79AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BB36E9-7477-CC4D-8A51-1A1779303B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -643,6 +643,23 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>arrayPayload</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ペイロードに電文の配列が載る</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ノル </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1247,6 +1264,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1267,27 +1305,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1680,7 +1697,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1724,7 +1741,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1749,10 +1766,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:F60"/>
+      <selection activeCell="E61" sqref="E61:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1925,23 +1942,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1978,29 +1995,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -2014,10 +2031,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2038,7 +2055,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A59" si="0">A28+1</f>
+        <f t="shared" ref="A29:A60" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2152,10 +2169,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2172,10 +2189,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="61"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2190,10 +2207,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="61"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2210,10 +2227,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2230,10 +2247,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="61"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2250,10 +2267,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2289,10 +2306,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2308,10 +2325,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2327,10 +2344,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2346,10 +2363,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="61"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2366,10 +2383,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="61"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2384,10 +2401,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="61"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2402,10 +2419,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="61"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2420,10 +2437,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="61"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2440,10 +2457,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="61"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2458,10 +2475,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="54"/>
+      <c r="F51" s="61"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2476,10 +2493,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="54"/>
+      <c r="F52" s="61"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2494,10 +2511,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="61"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2514,10 +2531,10 @@
       <c r="D54" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="54"/>
+      <c r="F54" s="61"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2534,10 +2551,10 @@
       <c r="D55" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="61"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2552,10 +2569,10 @@
         <v>34</v>
       </c>
       <c r="D56" s="49"/>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="54"/>
+      <c r="F56" s="61"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2570,10 +2587,10 @@
         <v>102</v>
       </c>
       <c r="D57" s="49"/>
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="61"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2590,10 +2607,10 @@
       <c r="D58" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="54"/>
+      <c r="F58" s="61"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2610,40 +2627,87 @@
       <c r="D59" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="61"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
+    <row r="60" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A60" s="29">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="61"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" s="45" customFormat="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="48"/>
+    <row r="61" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="29"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="44"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="54"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="22"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="35"/>
+    <row r="62" spans="1:7" s="45" customFormat="1">
+      <c r="A62" s="52"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="22"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2655,36 +2719,10 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D78" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D79" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BB36E9-7477-CC4D-8A51-1A1779303B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4BD3D-EE93-0A4C-BF66-5FB73E6DAD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -659,6 +659,20 @@
       <t xml:space="preserve">ハイレツ </t>
     </rPh>
     <rPh sb="12" eb="13">
+      <t xml:space="preserve">ノル </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>primitivePayload</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ペイロードにprimitive (非JSON）が載る</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
       <t xml:space="preserve">ノル </t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1264,6 +1278,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1284,27 +1319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,7 +1711,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1741,7 +1755,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1766,10 +1780,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:F61"/>
+      <selection activeCell="E42" sqref="E42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1942,23 +1956,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1995,29 +2009,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -2031,10 +2045,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2055,7 +2069,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A60" si="0">A28+1</f>
+        <f t="shared" ref="A29:A61" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2169,10 +2183,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="56"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2189,10 +2203,10 @@
       <c r="D36" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2207,10 +2221,10 @@
         <v>24</v>
       </c>
       <c r="D37" s="44"/>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="61"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
@@ -2227,10 +2241,10 @@
       <c r="D38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="59"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2247,10 +2261,10 @@
       <c r="D39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2267,10 +2281,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="58"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2306,10 +2320,10 @@
       <c r="D42" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
@@ -2325,10 +2339,10 @@
       <c r="D43" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
@@ -2344,10 +2358,10 @@
       <c r="D44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A45" s="29">
@@ -2363,10 +2377,10 @@
       <c r="D45" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="54"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" s="45" customFormat="1">
@@ -2383,10 +2397,10 @@
       <c r="D46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
+      <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2401,10 +2415,10 @@
         <v>34</v>
       </c>
       <c r="D47" s="49"/>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2419,10 +2433,10 @@
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2437,10 +2451,10 @@
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2457,10 +2471,10 @@
       <c r="D50" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2475,10 +2489,10 @@
         <v>34</v>
       </c>
       <c r="D51" s="44"/>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2493,10 +2507,10 @@
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="61"/>
+      <c r="F52" s="54"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2511,10 +2525,10 @@
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="61"/>
+      <c r="F53" s="54"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2531,10 +2545,10 @@
       <c r="D54" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="61"/>
+      <c r="F54" s="54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
@@ -2551,10 +2565,10 @@
       <c r="D55" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="61"/>
+      <c r="F55" s="54"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2569,10 +2583,10 @@
         <v>34</v>
       </c>
       <c r="D56" s="49"/>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="61"/>
+      <c r="F56" s="54"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2587,10 +2601,10 @@
         <v>102</v>
       </c>
       <c r="D57" s="49"/>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="61"/>
+      <c r="F57" s="54"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2607,10 +2621,10 @@
       <c r="D58" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="F58" s="61"/>
+      <c r="F58" s="54"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2627,10 +2641,10 @@
       <c r="D59" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="E59" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F59" s="61"/>
+      <c r="F59" s="54"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2647,67 +2661,61 @@
       <c r="D60" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="61"/>
+      <c r="F60" s="54"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
+    <row r="61" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A61" s="29">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="54"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" s="45" customFormat="1">
-      <c r="A62" s="52"/>
-      <c r="B62" s="48"/>
+    <row r="62" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="29"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="44"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="54"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="22"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="35"/>
+    <row r="63" spans="1:7" s="45" customFormat="1">
+      <c r="A63" s="52"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="22"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
+  <mergeCells count="39">
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2719,10 +2727,37 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D79" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D80" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4BD3D-EE93-0A4C-BF66-5FB73E6DAD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5192B9-7788-5C4C-9D86-3121AB18887E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -674,6 +674,23 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t xml:space="preserve">ノル </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>optionalPayload</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ペイロード電文を省略可能</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">カノウ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1284,6 +1301,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1298,27 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,7 +1728,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1755,7 +1772,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1780,10 +1797,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F42"/>
+      <selection activeCell="E63" sqref="E63:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1956,23 +1973,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -2009,29 +2026,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="61" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -2045,10 +2062,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2069,7 +2086,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A61" si="0">A28+1</f>
+        <f t="shared" ref="A29:A62" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2183,10 +2200,10 @@
       <c r="D35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="63"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
@@ -2244,7 +2261,7 @@
       <c r="E38" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="66"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
@@ -2281,10 +2298,10 @@
       <c r="D40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="65"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7">
@@ -2687,34 +2704,78 @@
       <c r="F61" s="54"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="53"/>
+    <row r="62" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A62" s="29">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="F62" s="54"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" s="45" customFormat="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="48"/>
+    <row r="63" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="29"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="44"/>
-      <c r="D63" s="49"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="53"/>
       <c r="F63" s="54"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="22"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="35"/>
+    <row r="64" spans="1:7" s="45" customFormat="1">
+      <c r="A64" s="52"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="54"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="22"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
@@ -2731,33 +2792,10 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D80" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
+++ b/meta/program/BlancoRestGeneratorKtTelegramStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5192B9-7788-5C4C-9D86-3121AB18887E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06643E8-6B6E-BC43-9D7F-5E43710023A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="3500" windowWidth="24320" windowHeight="17500" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -692,6 +692,14 @@
     <rPh sb="10" eb="12">
       <t xml:space="preserve">カノウ </t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>generic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスの総称型を指定します。</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1301,6 +1309,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1321,21 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,7 +1736,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1772,7 +1780,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1797,10 +1805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1973,23 +1981,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -2026,29 +2034,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="66" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
@@ -2062,10 +2070,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="29">
@@ -2086,7 +2094,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="29">
-        <f t="shared" ref="A29:A62" si="0">A28+1</f>
+        <f t="shared" ref="A29:A63" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -2154,8 +2162,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A31+1</f>
+        <v>6</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>25</v>
@@ -2171,106 +2179,103 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A32+1</f>
+        <v>7</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="33"/>
-    </row>
-    <row r="35" spans="1:7" s="45" customFormat="1" ht="45">
-      <c r="A35" s="29">
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A36" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B36" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D36" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E36" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" s="45" customFormat="1" ht="15">
-      <c r="A36" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="56"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A37" s="29">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="53" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
+    <row r="38" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A38" s="29">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" s="45" customFormat="1" ht="45" customHeight="1">
+      <c r="A39" s="29">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B39" s="43" t="s">
         <v>60</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="66"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" s="45" customFormat="1" ht="45">
-      <c r="A39" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>50</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>47</v>
@@ -2279,95 +2284,96 @@
         <v>48</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="F39" s="59"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" s="45" customFormat="1" ht="45">
       <c r="A40" s="29">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" s="45" customFormat="1" ht="45">
+      <c r="A41" s="29">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B41" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C41" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D41" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E41" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="65"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="29">
+      <c r="F41" s="58"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B42" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D42" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E42" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="29">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="29">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>57</v>
@@ -2376,17 +2382,17 @@
         <v>58</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F44" s="54"/>
     </row>
-    <row r="45" spans="1:7" s="45" customFormat="1" ht="15">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="29">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>57</v>
@@ -2395,45 +2401,46 @@
         <v>58</v>
       </c>
       <c r="E45" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A46" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="53" t="s">
         <v>75</v>
-      </c>
-      <c r="F45" s="54"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" s="45" customFormat="1">
-      <c r="A46" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>79</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" s="45" customFormat="1" ht="15">
+    <row r="47" spans="1:7" s="45" customFormat="1">
       <c r="A47" s="29">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="E47" s="53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47"/>
@@ -2441,17 +2448,17 @@
     <row r="48" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A48" s="29">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F48" s="54"/>
       <c r="G48"/>
@@ -2459,37 +2466,35 @@
     <row r="49" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A49" s="29">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A50" s="29">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>86</v>
+        <v>23</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="44" t="b">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D50" s="49"/>
       <c r="E50" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50"/>
@@ -2497,17 +2502,19 @@
     <row r="51" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="44"/>
+        <v>57</v>
+      </c>
+      <c r="D51" s="44" t="b">
+        <v>0</v>
+      </c>
       <c r="E51" s="53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51"/>
@@ -2515,17 +2522,17 @@
     <row r="52" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="29">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="44"/>
       <c r="E52" s="53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52"/>
@@ -2533,17 +2540,17 @@
     <row r="53" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="29">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53" s="44" t="s">
         <v>34</v>
       </c>
       <c r="D53" s="44"/>
       <c r="E53" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53"/>
@@ -2551,19 +2558,17 @@
     <row r="54" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>95</v>
-      </c>
+      <c r="D54" s="44"/>
       <c r="E54" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54"/>
@@ -2571,75 +2576,75 @@
     <row r="55" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="29">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="44" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F55" s="54"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" s="45" customFormat="1" ht="15">
+    <row r="56" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="29">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="D56" s="44" t="b">
+        <v>0</v>
+      </c>
       <c r="E56" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F56" s="54"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" s="45" customFormat="1" ht="45">
+    <row r="57" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A57" s="29">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" s="45" customFormat="1" ht="15">
+    <row r="58" spans="1:7" s="45" customFormat="1" ht="45">
       <c r="A58" s="29">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>105</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D58" s="49"/>
       <c r="E58" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F58" s="54"/>
       <c r="G58"/>
@@ -2647,19 +2652,19 @@
     <row r="59" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A59" s="29">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="49" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="54"/>
       <c r="G59"/>
@@ -2667,10 +2672,10 @@
     <row r="60" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A60" s="29">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="44" t="s">
         <v>57</v>
@@ -2679,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F60" s="54"/>
       <c r="G60"/>
@@ -2687,19 +2692,19 @@
     <row r="61" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A61" s="29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="49" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D61" s="49" t="b">
+        <v>0</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="54"/>
       <c r="G61"/>
@@ -2707,76 +2712,71 @@
     <row r="62" spans="1:7" s="45" customFormat="1" ht="15">
       <c r="A62" s="29">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="49" t="b">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>105</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F62" s="54"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="53"/>
+    <row r="63" spans="1:7" s="45" customFormat="1" ht="15">
+      <c r="A63" s="29">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="F63" s="54"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" s="45" customFormat="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="48"/>
+    <row r="64" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="29"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="44"/>
-      <c r="D64" s="49"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="22"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="35"/>
+    <row r="65" spans="1:7" s="45" customFormat="1">
+      <c r="A65" s="52"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="22"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E61:F61"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2788,14 +2788,39 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
